--- a/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
+++ b/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D72FEC-FC1C-4170-BE5A-4C462E45833B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFBC71C-4233-4089-9748-F01FC3ECF008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -34,41 +34,6 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Autor</author>
-  </authors>
-  <commentList>
-    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-max = 
-Current Year</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Autor</author>
@@ -128,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="111">
   <si>
     <t>VVSS, Info Romana, 2024-2025</t>
   </si>
@@ -359,18 +324,9 @@
     </r>
   </si>
   <si>
-    <t>Existența meniului</t>
-  </si>
-  <si>
     <t>Meniu disponibil cu cel putin un tip de pizza</t>
   </si>
   <si>
-    <t>Meniu inexistent / gol</t>
-  </si>
-  <si>
-    <t>Cantitatea de produse selectate</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cantitate &gt; 0 </t>
   </si>
   <si>
@@ -416,27 +372,6 @@
     <t>cantitate = 1000</t>
   </si>
   <si>
-    <t>cantitate minima de pizza</t>
-  </si>
-  <si>
-    <t>cantitate maxima de pizza</t>
-  </si>
-  <si>
-    <t>cantiate nula</t>
-  </si>
-  <si>
-    <t>cantiate negativa</t>
-  </si>
-  <si>
-    <t>cantitate = 0</t>
-  </si>
-  <si>
-    <t>cantitate = -1</t>
-  </si>
-  <si>
-    <t>Cantitate = 2</t>
-  </si>
-  <si>
     <t>TC2</t>
   </si>
   <si>
@@ -476,10 +411,64 @@
     <t>TC2_ECP</t>
   </si>
   <si>
-    <t>Meniu Gol</t>
-  </si>
-  <si>
     <t>Meniu = []</t>
+  </si>
+  <si>
+    <t>Patroi Cristiana Gabriela</t>
+  </si>
+  <si>
+    <t>Scurtu-Rodriguez Kevin-George</t>
+  </si>
+  <si>
+    <t>EC Condition</t>
+  </si>
+  <si>
+    <t>Meniul trebuie să existe și să nu fie gol</t>
+  </si>
+  <si>
+    <t>Cantitatea de produse selectate trebuie să fie nenulă</t>
+  </si>
+  <si>
+    <t>Meniu inexistent</t>
+  </si>
+  <si>
+    <t>Meniu gol</t>
+  </si>
+  <si>
+    <t>Cantitatea c de produse selectate trebuie să fie nenulă</t>
+  </si>
+  <si>
+    <t>c = 0</t>
+  </si>
+  <si>
+    <t>c = 1</t>
+  </si>
+  <si>
+    <t>c = 2</t>
+  </si>
+  <si>
+    <t>c = MAXINT - 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c = MAXINT </t>
+  </si>
+  <si>
+    <t>c = MAXINT + 1</t>
+  </si>
+  <si>
+    <t>Meniu = [Margherita, ...]</t>
+  </si>
+  <si>
+    <t>nu</t>
+  </si>
+  <si>
+    <t>nu se poate simula</t>
+  </si>
+  <si>
+    <t>TC1</t>
+  </si>
+  <si>
+    <t>TC5</t>
   </si>
 </sst>
 </file>
@@ -1154,7 +1143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1179,9 +1168,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1249,98 +1235,14 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1348,118 +1250,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1467,6 +1258,133 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1476,25 +1394,134 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1804,40 +1831,40 @@
   </sheetPr>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="22.5703125" customWidth="1"/>
-    <col min="9" max="9" width="32.85546875" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" customWidth="1"/>
+    <col min="9" max="9" width="32.88671875" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" customWidth="1"/>
     <col min="14" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C1" s="43" t="s">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="45"/>
-      <c r="H1" s="41" t="s">
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="55"/>
+      <c r="H1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H2" s="46" t="s">
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
         <v>3</v>
@@ -1846,106 +1873,114 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4" s="2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="27"/>
+      <c r="I5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J5" s="2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="26"/>
       <c r="H6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="2:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="39" t="s">
+    <row r="7" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="38" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="125" t="s">
-        <v>95</v>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="51" t="s">
+        <v>85</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="39" t="s">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B18" s="38" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="37"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C20" s="36"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1962,7 +1997,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1976,24 +2011,24 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C26" s="40"/>
+    <row r="24" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="37"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C26" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2011,1215 +2046,1107 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:O22"/>
+  <dimension ref="B1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" customWidth="1"/>
-    <col min="4" max="4" width="42.28515625" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.77734375" customWidth="1"/>
+    <col min="4" max="4" width="42.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" customWidth="1"/>
+    <col min="6" max="6" width="5.88671875" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" customWidth="1"/>
-    <col min="15" max="15" width="34.28515625" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" customWidth="1"/>
+    <col min="10" max="10" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.88671875" customWidth="1"/>
+    <col min="15" max="15" width="34.33203125" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" customWidth="1"/>
     <col min="17" max="17" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B1" s="43" t="s">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="50" t="s">
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="55"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="52"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="53" t="s">
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="75"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="G5" s="105" t="s">
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="G5" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
-      <c r="L5" s="106"/>
-      <c r="M5" s="106"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="107"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="59"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="54" t="s">
+      <c r="G6" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="60" t="s">
+      <c r="H6" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="62" t="s">
+      <c r="I6" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62" t="s">
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="62"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O6" s="67"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="E7" s="4"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="61"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="66"/>
       <c r="I7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="L7" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="M7" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="N7" s="58" t="s">
+      <c r="K7" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="N7" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="O7" s="59"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O7" s="69"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="47"/>
+      <c r="C8" s="70"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" s="15">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K8" s="2">
-        <v>2</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="N8" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="O8" s="57"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="G8" s="41"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="21"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="G9" s="15">
+      <c r="C9" s="70"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="14">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>4</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="2">
         <v>2</v>
       </c>
-      <c r="H9" s="2">
-        <v>2</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
       <c r="L9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N9" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="M9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N9" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="O9" s="57"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O9" s="64"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="26">
-        <v>3</v>
-      </c>
-      <c r="H10" s="25">
-        <v>3</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="J10" s="25" t="s">
+      <c r="C10" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="G10" s="14">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="M10" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="N10" s="73" t="s">
-        <v>79</v>
-      </c>
-      <c r="O10" s="74"/>
-    </row>
-    <row r="11" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N10" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="O10" s="64"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>5</v>
       </c>
-      <c r="C11" s="47"/>
+      <c r="C11" s="70"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="G11" s="26">
-        <v>4</v>
-      </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="74"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="25">
+        <v>3</v>
+      </c>
+      <c r="H11" s="24">
+        <v>2</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="O11" s="62"/>
+    </row>
+    <row r="12" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>6</v>
       </c>
-      <c r="C12" s="47"/>
+      <c r="C12" s="70"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="G12" s="9">
-        <v>5</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="74"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G12" s="25">
+        <v>4</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="62"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>7</v>
       </c>
-      <c r="C13" s="48"/>
+      <c r="C13" s="70"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="G13" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H13" s="6"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="74"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="62"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>8</v>
       </c>
-      <c r="C14" s="49"/>
+      <c r="C14" s="71"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="G14" s="14">
-        <v>7</v>
-      </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="74"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G14" s="9">
+        <v>6</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="62"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="47" t="s">
-        <v>28</v>
-      </c>
+      <c r="C15" s="72"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="G15" s="14">
-        <v>8</v>
-      </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="74"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G15" s="13">
+        <v>7</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="62"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>10</v>
       </c>
-      <c r="C16" s="47"/>
+      <c r="C16" s="70" t="s">
+        <v>28</v>
+      </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="74"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G16" s="13">
+        <v>8</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="62"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>11</v>
       </c>
-      <c r="C17" s="47" t="s">
-        <v>28</v>
-      </c>
+      <c r="C17" s="70"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="74"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G17" s="13"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="62"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>12</v>
       </c>
-      <c r="C18" s="47"/>
+      <c r="C18" s="70" t="s">
+        <v>28</v>
+      </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="74"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G18" s="13"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="62"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
         <v>13</v>
       </c>
-      <c r="C19" s="47" t="s">
-        <v>28</v>
-      </c>
+      <c r="C19" s="70"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="74"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G19" s="13"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="62"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
         <v>14</v>
       </c>
-      <c r="C20" s="47"/>
+      <c r="C20" s="70" t="s">
+        <v>28</v>
+      </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
+      <c r="G20" s="14"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="62"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B21" s="4">
+        <v>15</v>
+      </c>
+      <c r="C21" s="70"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G6:G7"/>
     <mergeCell ref="G5:O5"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="F23:G23"/>
     <mergeCell ref="N17:O17"/>
     <mergeCell ref="N18:O18"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N16:O16"/>
     <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="I6:M6"/>
-    <mergeCell ref="N13:O13"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N15:O15"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N12:O12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:R36"/>
+  <dimension ref="B1:R29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" customWidth="1"/>
-    <col min="16" max="16" width="3.42578125" customWidth="1"/>
-    <col min="17" max="17" width="23.28515625" customWidth="1"/>
-    <col min="18" max="18" width="9.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" customWidth="1"/>
+    <col min="16" max="16" width="3.44140625" customWidth="1"/>
+    <col min="17" max="17" width="23.33203125" customWidth="1"/>
+    <col min="18" max="18" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="43" t="s">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45"/>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="50" t="s">
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="55"/>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B3" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="52"/>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="108" t="s">
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="75"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B5" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="110"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="89"/>
       <c r="E5" s="3"/>
-      <c r="G5" s="105" t="s">
+      <c r="G5" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
-      <c r="L5" s="106"/>
-      <c r="M5" s="106"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="106"/>
-      <c r="Q5" s="106"/>
-      <c r="R5" s="107"/>
-    </row>
-    <row r="6" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="59"/>
+    </row>
+    <row r="6" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E6" s="7"/>
-      <c r="G6" s="54" t="s">
+      <c r="G6" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="54" t="s">
+      <c r="H6" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="54" t="s">
+      <c r="I6" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="60" t="s">
+      <c r="J6" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="71" t="s">
+      <c r="K6" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="71" t="s">
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="85"/>
+      <c r="Q6" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="R6" s="72"/>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="48">
+      <c r="R6" s="85"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B7" s="71">
         <v>1</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="80" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="O7" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="R7" s="69"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B8" s="79"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="14">
+        <v>1</v>
+      </c>
+      <c r="H8" s="138" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O8" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="R8" s="45"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B9" s="79"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" s="46">
+        <v>2</v>
+      </c>
+      <c r="H9" s="138" t="s">
+        <v>101</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O9" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="R9" s="62"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B10" s="79"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" s="46">
+        <v>3</v>
+      </c>
+      <c r="H10" s="138" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M10" s="2">
+        <v>2</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O10" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="R10" s="62"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B11" s="79"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" s="46">
+        <v>4</v>
+      </c>
+      <c r="H11" s="139" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O11" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="M7" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="N7" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="O7" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="R7" s="59"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="65"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="2"/>
-      <c r="G8" s="15">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M8" s="2">
+      <c r="P11" s="62"/>
+      <c r="Q11" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="R11" s="62"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B12" s="72"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" s="46">
+        <v>5</v>
+      </c>
+      <c r="H12" s="138" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="R12" s="62"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B13" s="71">
         <v>2</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="O8" s="73" t="s">
+      <c r="C13" s="80" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="46">
+        <v>6</v>
+      </c>
+      <c r="H13" s="139" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="R8" s="74"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="65"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="2"/>
-      <c r="G9" s="111">
-        <v>2</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M9" s="2">
-        <v>1000</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="O9" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="R9" s="74"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="65"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="2"/>
-      <c r="G10" s="111">
-        <v>3</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M10" s="2">
-        <v>0</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="O10" s="73" t="s">
+      <c r="L13" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="73" t="s">
-        <v>93</v>
-      </c>
-      <c r="R10" s="74"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="65"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="2"/>
-      <c r="G11" s="111">
-        <v>4</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M11" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="O11" s="73" t="s">
+      <c r="M13" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="P11" s="74"/>
-      <c r="Q11" s="73" t="s">
-        <v>93</v>
-      </c>
-      <c r="R11" s="74"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="49"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="2"/>
-      <c r="G12" s="111">
-        <v>5</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="K12" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="L12" s="25" t="s">
+      <c r="N13" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="M12" s="25" t="s">
+      <c r="O13" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="N12" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="O12" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="P12" s="74"/>
-      <c r="Q12" s="73" t="s">
-        <v>93</v>
-      </c>
-      <c r="R12" s="74"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="48">
-        <v>2</v>
-      </c>
-      <c r="C13" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="111">
-        <v>6</v>
-      </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="74"/>
-      <c r="Q13" s="73"/>
-      <c r="R13" s="74"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="2"/>
-      <c r="G14" s="111">
-        <v>7</v>
-      </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="73"/>
-      <c r="R14" s="74"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="2"/>
-      <c r="G15" s="111">
-        <v>8</v>
-      </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="74"/>
-      <c r="Q15" s="73"/>
-      <c r="R15" s="74"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="2"/>
-      <c r="G16" s="111">
-        <v>9</v>
-      </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="74"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="2"/>
-      <c r="G17" s="111">
-        <v>10</v>
-      </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="74"/>
-      <c r="Q17" s="73"/>
-      <c r="R17" s="74"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="2"/>
-      <c r="G18" s="111">
-        <v>11</v>
-      </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="73"/>
-      <c r="P18" s="74"/>
-      <c r="Q18" s="73"/>
-      <c r="R18" s="74"/>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="48">
-        <v>3</v>
-      </c>
-      <c r="C19" s="66" t="s">
+      <c r="P13" s="137"/>
+      <c r="Q13" s="137" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G19" s="111">
-        <v>12</v>
-      </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="73"/>
-      <c r="P19" s="74"/>
-      <c r="Q19" s="73"/>
-      <c r="R19" s="74"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="65"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="2"/>
-      <c r="G20" s="111">
-        <v>13</v>
-      </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="73"/>
-      <c r="P20" s="74"/>
-      <c r="Q20" s="73"/>
-      <c r="R20" s="74"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="65"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="2"/>
-      <c r="G21" s="111">
-        <v>14</v>
-      </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="73"/>
-      <c r="P21" s="74"/>
-      <c r="Q21" s="73"/>
-      <c r="R21" s="74"/>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="65"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="2"/>
-      <c r="G22" s="111">
-        <v>15</v>
-      </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="74"/>
-      <c r="Q22" s="73"/>
-      <c r="R22" s="74"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="65"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="2"/>
-      <c r="G23" s="111">
-        <v>16</v>
-      </c>
-      <c r="H23" s="12"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="73"/>
-      <c r="P23" s="74"/>
-      <c r="Q23" s="73"/>
-      <c r="R23" s="74"/>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="49"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="2"/>
-      <c r="G24" s="111">
-        <v>17</v>
-      </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="73"/>
-      <c r="P24" s="74"/>
-      <c r="Q24" s="73"/>
-      <c r="R24" s="74"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="48">
-        <v>4</v>
-      </c>
-      <c r="C25" s="66" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G25" s="111">
-        <v>18</v>
-      </c>
-      <c r="H25" s="12"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="73"/>
-      <c r="P25" s="74"/>
-      <c r="Q25" s="73"/>
-      <c r="R25" s="74"/>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="65"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="2" t="s">
+      <c r="R13" s="137"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B14" s="79"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" s="130"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="131"/>
+      <c r="J14" s="131"/>
+      <c r="K14" s="131"/>
+      <c r="L14" s="131"/>
+      <c r="M14" s="131"/>
+      <c r="N14" s="131"/>
+      <c r="O14" s="131"/>
+      <c r="P14" s="131"/>
+      <c r="Q14" s="131"/>
+      <c r="R14" s="131"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B15" s="79"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="65"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="2" t="s">
+      <c r="G15" s="130"/>
+      <c r="H15" s="131"/>
+      <c r="I15" s="131"/>
+      <c r="J15" s="131"/>
+      <c r="K15" s="131"/>
+      <c r="L15" s="131"/>
+      <c r="M15" s="131"/>
+      <c r="N15" s="131"/>
+      <c r="O15" s="131"/>
+      <c r="P15" s="131"/>
+      <c r="Q15" s="131"/>
+      <c r="R15" s="131"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B16" s="79"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="65"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="2" t="s">
+      <c r="G16" s="130"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="131"/>
+      <c r="J16" s="131"/>
+      <c r="K16" s="131"/>
+      <c r="L16" s="131"/>
+      <c r="M16" s="131"/>
+      <c r="N16" s="131"/>
+      <c r="O16" s="131"/>
+      <c r="P16" s="131"/>
+      <c r="Q16" s="131"/>
+      <c r="R16" s="131"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B17" s="79"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="70"/>
-      <c r="M28" s="70"/>
-      <c r="N28" s="33"/>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="65"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="2" t="s">
+      <c r="G17" s="130"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="131"/>
+      <c r="J17" s="131"/>
+      <c r="K17" s="131"/>
+      <c r="L17" s="131"/>
+      <c r="M17" s="131"/>
+      <c r="N17" s="131"/>
+      <c r="O17" s="131"/>
+      <c r="P17" s="131"/>
+      <c r="Q17" s="131"/>
+      <c r="R17" s="131"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B18" s="72"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="69"/>
-      <c r="N29" s="34"/>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="49"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="48">
-        <v>5</v>
-      </c>
-      <c r="C31" s="66" t="s">
-        <v>101</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="65"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="65"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="65"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="65"/>
-      <c r="C35" s="67"/>
-      <c r="D35" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="49"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="G18" s="130"/>
+      <c r="H18" s="131"/>
+      <c r="I18" s="131"/>
+      <c r="J18" s="131"/>
+      <c r="K18" s="131"/>
+      <c r="L18" s="131"/>
+      <c r="M18" s="131"/>
+      <c r="N18" s="131"/>
+      <c r="O18" s="131"/>
+      <c r="P18" s="131"/>
+      <c r="Q18" s="131"/>
+      <c r="R18" s="131"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="G19" s="130"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="133"/>
+      <c r="J19" s="133"/>
+      <c r="K19" s="131"/>
+      <c r="L19" s="131"/>
+      <c r="M19" s="131"/>
+      <c r="N19" s="131"/>
+      <c r="O19" s="134"/>
+      <c r="P19" s="134"/>
+      <c r="Q19" s="134"/>
+      <c r="R19" s="134"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="G20" s="130"/>
+      <c r="H20" s="132"/>
+      <c r="I20" s="133"/>
+      <c r="J20" s="133"/>
+      <c r="K20" s="135"/>
+      <c r="L20" s="135"/>
+      <c r="M20" s="135"/>
+      <c r="N20" s="135"/>
+      <c r="O20" s="134"/>
+      <c r="P20" s="134"/>
+      <c r="Q20" s="134"/>
+      <c r="R20" s="134"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="G21" s="130"/>
+      <c r="H21" s="132"/>
+      <c r="I21" s="133"/>
+      <c r="J21" s="133"/>
+      <c r="K21" s="135"/>
+      <c r="L21" s="135"/>
+      <c r="M21" s="135"/>
+      <c r="N21" s="135"/>
+      <c r="O21" s="134"/>
+      <c r="P21" s="134"/>
+      <c r="Q21" s="134"/>
+      <c r="R21" s="134"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="G22" s="130"/>
+      <c r="H22" s="132"/>
+      <c r="I22" s="133"/>
+      <c r="J22" s="133"/>
+      <c r="K22" s="136"/>
+      <c r="L22" s="135"/>
+      <c r="M22" s="135"/>
+      <c r="N22" s="135"/>
+      <c r="O22" s="134"/>
+      <c r="P22" s="134"/>
+      <c r="Q22" s="134"/>
+      <c r="R22" s="134"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="G23" s="130"/>
+      <c r="H23" s="132"/>
+      <c r="I23" s="133"/>
+      <c r="J23" s="133"/>
+      <c r="K23" s="135"/>
+      <c r="L23" s="135"/>
+      <c r="M23" s="135"/>
+      <c r="N23" s="135"/>
+      <c r="O23" s="134"/>
+      <c r="P23" s="134"/>
+      <c r="Q23" s="134"/>
+      <c r="R23" s="134"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="G24" s="130"/>
+      <c r="H24" s="132"/>
+      <c r="I24" s="133"/>
+      <c r="J24" s="133"/>
+      <c r="K24" s="135"/>
+      <c r="L24" s="135"/>
+      <c r="M24" s="135"/>
+      <c r="N24" s="135"/>
+      <c r="O24" s="134"/>
+      <c r="P24" s="134"/>
+      <c r="Q24" s="134"/>
+      <c r="R24" s="134"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="G25" s="130"/>
+      <c r="H25" s="132"/>
+      <c r="I25" s="133"/>
+      <c r="J25" s="133"/>
+      <c r="K25" s="135"/>
+      <c r="L25" s="135"/>
+      <c r="M25" s="135"/>
+      <c r="N25" s="135"/>
+      <c r="O25" s="134"/>
+      <c r="P25" s="134"/>
+      <c r="Q25" s="134"/>
+      <c r="R25" s="134"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="86"/>
+      <c r="M28" s="86"/>
+      <c r="N28" s="32"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="I29" s="90"/>
+      <c r="J29" s="90"/>
+      <c r="K29" s="90"/>
+      <c r="L29" s="90"/>
+      <c r="M29" s="90"/>
+      <c r="N29" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="61">
+  <mergeCells count="43">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="I29:M29"/>
+    <mergeCell ref="G5:R5"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="K6:P6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O13:P13"/>
     <mergeCell ref="O24:P24"/>
     <mergeCell ref="O25:P25"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="C13:C18"/>
     <mergeCell ref="O19:P19"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="O21:P21"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="K6:P6"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O13:P13"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="I28:M28"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="I29:M29"/>
-    <mergeCell ref="G5:R5"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="Q7:R7"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3231,507 +3158,508 @@
   <dimension ref="B1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12:L12"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" customWidth="1"/>
-    <col min="13" max="13" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" customWidth="1"/>
+    <col min="13" max="13" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B1" s="43" t="s">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45"/>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="81" t="s">
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="55"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B3" s="126" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-    </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="54" t="s">
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B4" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="86" t="s">
+      <c r="D4" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="58" t="s">
+      <c r="F4" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="62" t="s">
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="62"/>
-    </row>
-    <row r="5" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="85"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="113" t="s">
+      <c r="N4" s="67"/>
+    </row>
+    <row r="5" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="110"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="127" t="s">
+        <v>84</v>
+      </c>
+      <c r="K5" s="128"/>
+      <c r="L5" s="129"/>
+      <c r="M5" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="15">
+        <v>1</v>
+      </c>
+      <c r="C6" s="108" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="24">
+        <v>2</v>
+      </c>
+      <c r="I6" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="J6" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="H5" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="J5" s="76" t="s">
-        <v>94</v>
-      </c>
-      <c r="K5" s="112"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="16">
-        <v>1</v>
-      </c>
-      <c r="C6" s="83" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="H6" s="25">
-        <v>2</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="J6" s="116" t="s">
-        <v>75</v>
-      </c>
-      <c r="K6" s="117"/>
-      <c r="L6" s="118"/>
-      <c r="M6" s="124" t="s">
-        <v>90</v>
-      </c>
-      <c r="N6" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="K6" s="94"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B7" s="8">
         <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="22" t="s">
+      <c r="C7" s="108"/>
+      <c r="D7" s="21" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="H7" s="25">
+        <v>87</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="24">
         <v>1000</v>
       </c>
-      <c r="I7" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="J7" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="K7" s="119"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="111" t="s">
-        <v>90</v>
+      <c r="I7" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" s="91"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="46" t="s">
+        <v>80</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8" s="8">
         <f t="shared" ref="B8:B13" si="0">B7+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="83"/>
-      <c r="D8" s="22" t="s">
-        <v>98</v>
+      <c r="C8" s="108"/>
+      <c r="D8" s="21" t="s">
+        <v>88</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="H8" s="25">
+      <c r="F8" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="24">
         <v>0</v>
       </c>
-      <c r="I8" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="J8" s="73" t="s">
+      <c r="I8" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="119"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="111" t="s">
-        <v>93</v>
+      <c r="K8" s="91"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="46" t="s">
+        <v>83</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B9" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="83"/>
-      <c r="D9" s="22" t="s">
+      <c r="C9" s="108"/>
+      <c r="D9" s="21" t="s">
         <v>29</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="H9" s="25">
-        <v>-1</v>
-      </c>
-      <c r="I9" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="J9" s="120" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="121"/>
-      <c r="L9" s="122"/>
-      <c r="M9" s="111" t="s">
-        <v>93</v>
+      <c r="F9" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="24">
+        <v>1</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="96" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="97"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="46" t="s">
+        <v>80</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B10" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="83"/>
-      <c r="D10" s="22" t="s">
-        <v>100</v>
+      <c r="C10" s="108"/>
+      <c r="D10" s="21" t="s">
+        <v>90</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="25" t="s">
+      <c r="F10" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="I10" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="73" t="s">
+      <c r="J10" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="119"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="111" t="s">
-        <v>93</v>
+      <c r="K10" s="91"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="46" t="s">
+        <v>83</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B11" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C11" s="83"/>
-      <c r="D11" s="22"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="8"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="119"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="114"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="48"/>
       <c r="N11" s="8"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B12" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="83"/>
-      <c r="D12" s="22"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="119"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="114"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="48"/>
       <c r="N12" s="8"/>
     </row>
-    <row r="13" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="17">
+    <row r="13" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="84"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="123"/>
-      <c r="K13" s="123"/>
-      <c r="L13" s="123"/>
-      <c r="M13" s="115"/>
-      <c r="N13" s="17"/>
-    </row>
-    <row r="14" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-    </row>
-    <row r="15" spans="2:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="19" t="s">
+      <c r="C13" s="109"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="16"/>
+    </row>
+    <row r="14" spans="2:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+    </row>
+    <row r="15" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="19"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="18"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="82"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="107"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="94" t="s">
+    <row r="17" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="29" t="s">
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="H17" s="94" t="s">
+      <c r="H17" s="101" t="s">
         <v>53</v>
       </c>
-      <c r="I17" s="97"/>
-      <c r="J17" s="95"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="94" t="s">
+      <c r="I17" s="102"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="103"/>
+      <c r="L17" s="104"/>
+      <c r="M17" s="101" t="s">
         <v>54</v>
       </c>
-      <c r="N17" s="97"/>
-      <c r="O17" s="95"/>
-      <c r="P17" s="96"/>
-    </row>
-    <row r="18" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="90" t="s">
+      <c r="N17" s="102"/>
+      <c r="O17" s="103"/>
+      <c r="P17" s="104"/>
+    </row>
+    <row r="18" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="91" t="s">
+      <c r="C18" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="92" t="s">
+      <c r="D18" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="92" t="s">
+      <c r="E18" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="93" t="s">
+      <c r="F18" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="102" t="s">
+      <c r="G18" s="121" t="s">
         <v>59</v>
       </c>
-      <c r="H18" s="98" t="s">
+      <c r="H18" s="117" t="s">
         <v>60</v>
       </c>
-      <c r="I18" s="99"/>
-      <c r="J18" s="92" t="s">
+      <c r="I18" s="118"/>
+      <c r="J18" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="K18" s="92" t="s">
+      <c r="K18" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="L18" s="93" t="s">
+      <c r="L18" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="M18" s="103" t="s">
+      <c r="M18" s="105" t="s">
         <v>60</v>
       </c>
-      <c r="N18" s="92" t="s">
+      <c r="N18" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="O18" s="92" t="s">
+      <c r="O18" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="P18" s="93" t="s">
+      <c r="P18" s="99" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="90"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="101"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="93"/>
-      <c r="M19" s="104"/>
-      <c r="N19" s="92"/>
-      <c r="O19" s="92"/>
-      <c r="P19" s="93"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="32" t="s">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="115"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="121"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="120"/>
+      <c r="J19" s="100"/>
+      <c r="K19" s="100"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="106"/>
+      <c r="N19" s="100"/>
+      <c r="O19" s="100"/>
+      <c r="P19" s="99"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B20" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="27">
         <v>7</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="29">
         <v>7</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="29">
         <v>0</v>
       </c>
-      <c r="F20" s="31">
+      <c r="F20" s="30">
         <v>0</v>
       </c>
-      <c r="G20" s="36">
+      <c r="G20" s="35">
         <v>0</v>
       </c>
-      <c r="H20" s="88"/>
-      <c r="I20" s="89"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="35"/>
+      <c r="H20" s="113" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="114"/>
+      <c r="J20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="M20" s="34"/>
       <c r="N20" s="2"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="31"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O20" s="29"/>
+      <c r="P20" s="30"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="M21" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="J5:L5"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="C6:C13"/>
     <mergeCell ref="B4:B5"/>
@@ -3748,13 +3676,20 @@
     <mergeCell ref="H18:I19"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="K18:K19"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3763,6 +3698,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010058284A30843C9F43BD758DDD8294D484" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6d50638930d08c51b5585735b2be047e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fed1744a-f275-4023-9290-77fd546fd730" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4acb07121b76573bb3c966f3dcb1b903" ns2:_="">
     <xsd:import namespace="fed1744a-f275-4023-9290-77fd546fd730"/>
@@ -3906,22 +3856,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF0EB622-FDCF-4321-9FF5-C0B282D1670E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BC1EB47-4FFF-47F3-894F-DED91590EA19}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33EFF49E-866D-4BFD-B7FD-9BB436667B53}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3937,21 +3889,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BC1EB47-4FFF-47F3-894F-DED91590EA19}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF0EB622-FDCF-4321-9FF5-C0B282D1670E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>